--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H2">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I2">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J2">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.1028172623171</v>
+        <v>7.457778999999999</v>
       </c>
       <c r="N2">
-        <v>2.1028172623171</v>
+        <v>22.373337</v>
       </c>
       <c r="O2">
-        <v>0.0253124470148074</v>
+        <v>0.08029647035915141</v>
       </c>
       <c r="P2">
-        <v>0.0253124470148074</v>
+        <v>0.0802964703591514</v>
       </c>
       <c r="Q2">
-        <v>28.27877124475359</v>
+        <v>116.8574331927263</v>
       </c>
       <c r="R2">
-        <v>28.27877124475359</v>
+        <v>1051.716898734537</v>
       </c>
       <c r="S2">
-        <v>0.006977256705968614</v>
+        <v>0.0234942437623817</v>
       </c>
       <c r="T2">
-        <v>0.006977256705968614</v>
+        <v>0.02349424376238169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H3">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I3">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J3">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.61422099607753</v>
+        <v>2.732509</v>
       </c>
       <c r="N3">
-        <v>2.61422099607753</v>
+        <v>8.197526999999999</v>
       </c>
       <c r="O3">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764526</v>
       </c>
       <c r="P3">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764525</v>
       </c>
       <c r="Q3">
-        <v>35.15614925561721</v>
+        <v>42.81623093363633</v>
       </c>
       <c r="R3">
-        <v>35.15614925561721</v>
+        <v>385.3460784027269</v>
       </c>
       <c r="S3">
-        <v>0.008674120810510699</v>
+        <v>0.008608224047521635</v>
       </c>
       <c r="T3">
-        <v>0.008674120810510699</v>
+        <v>0.008608224047521632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H4">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I4">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J4">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.3573978515154</v>
+        <v>82.68775466666666</v>
       </c>
       <c r="N4">
-        <v>78.3573978515154</v>
+        <v>248.063264</v>
       </c>
       <c r="O4">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332034</v>
       </c>
       <c r="P4">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332033</v>
       </c>
       <c r="Q4">
-        <v>1053.753442529523</v>
+        <v>1295.650992985518</v>
       </c>
       <c r="R4">
-        <v>1053.753442529523</v>
+        <v>11660.85893686966</v>
       </c>
       <c r="S4">
-        <v>0.2599939088474595</v>
+        <v>0.2604912621174054</v>
       </c>
       <c r="T4">
-        <v>0.2599939088474595</v>
+        <v>0.2604912621174054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H5">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I5">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J5">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.1028172623171</v>
+        <v>7.457778999999999</v>
       </c>
       <c r="N5">
-        <v>2.1028172623171</v>
+        <v>22.373337</v>
       </c>
       <c r="O5">
-        <v>0.0253124470148074</v>
+        <v>0.08029647035915141</v>
       </c>
       <c r="P5">
-        <v>0.0253124470148074</v>
+        <v>0.0802964703591514</v>
       </c>
       <c r="Q5">
-        <v>34.46265171423558</v>
+        <v>122.8801068079037</v>
       </c>
       <c r="R5">
-        <v>34.46265171423558</v>
+        <v>1105.920961271133</v>
       </c>
       <c r="S5">
-        <v>0.008503013292107639</v>
+        <v>0.02470510522108649</v>
       </c>
       <c r="T5">
-        <v>0.008503013292107639</v>
+        <v>0.02470510522108648</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H6">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I6">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J6">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.61422099607753</v>
+        <v>2.732509</v>
       </c>
       <c r="N6">
-        <v>2.61422099607753</v>
+        <v>8.197526999999999</v>
       </c>
       <c r="O6">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764526</v>
       </c>
       <c r="P6">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764525</v>
       </c>
       <c r="Q6">
-        <v>42.84394526635578</v>
+        <v>45.02292140509367</v>
       </c>
       <c r="R6">
-        <v>42.84394526635578</v>
+        <v>405.206292645843</v>
       </c>
       <c r="S6">
-        <v>0.01057094036486089</v>
+        <v>0.009051880239755807</v>
       </c>
       <c r="T6">
-        <v>0.01057094036486089</v>
+        <v>0.009051880239755802</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H7">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I7">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J7">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>78.3573978515154</v>
+        <v>82.68775466666666</v>
       </c>
       <c r="N7">
-        <v>78.3573978515154</v>
+        <v>248.063264</v>
       </c>
       <c r="O7">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332034</v>
       </c>
       <c r="P7">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332033</v>
       </c>
       <c r="Q7">
-        <v>1284.183728078675</v>
+        <v>1362.427087896509</v>
       </c>
       <c r="R7">
-        <v>1284.183728078675</v>
+        <v>12261.84379106858</v>
       </c>
       <c r="S7">
-        <v>0.3168482622842048</v>
+        <v>0.2739166284674546</v>
       </c>
       <c r="T7">
-        <v>0.3168482622842048</v>
+        <v>0.2739166284674545</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H8">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I8">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J8">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.1028172623171</v>
+        <v>7.457778999999999</v>
       </c>
       <c r="N8">
-        <v>2.1028172623171</v>
+        <v>22.373337</v>
       </c>
       <c r="O8">
-        <v>0.0253124470148074</v>
+        <v>0.08029647035915141</v>
       </c>
       <c r="P8">
-        <v>0.0253124470148074</v>
+        <v>0.0802964703591514</v>
       </c>
       <c r="Q8">
-        <v>39.84974273000679</v>
+        <v>159.647071630515</v>
       </c>
       <c r="R8">
-        <v>39.84974273000679</v>
+        <v>1436.823644674635</v>
       </c>
       <c r="S8">
-        <v>0.009832177016731149</v>
+        <v>0.03209712137568323</v>
       </c>
       <c r="T8">
-        <v>0.009832177016731149</v>
+        <v>0.03209712137568322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H9">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I9">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J9">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.61422099607753</v>
+        <v>2.732509</v>
       </c>
       <c r="N9">
-        <v>2.61422099607753</v>
+        <v>8.197526999999999</v>
       </c>
       <c r="O9">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764526</v>
       </c>
       <c r="P9">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764525</v>
       </c>
       <c r="Q9">
-        <v>49.54117316798123</v>
+        <v>58.49423267356499</v>
       </c>
       <c r="R9">
-        <v>49.54117316798123</v>
+        <v>526.4480940620849</v>
       </c>
       <c r="S9">
-        <v>0.01222335580694575</v>
+        <v>0.01176029392036782</v>
       </c>
       <c r="T9">
-        <v>0.01222335580694575</v>
+        <v>0.01176029392036782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H10">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I10">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J10">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.3573978515154</v>
+        <v>82.68775466666666</v>
       </c>
       <c r="N10">
-        <v>78.3573978515154</v>
+        <v>248.063264</v>
       </c>
       <c r="O10">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332034</v>
       </c>
       <c r="P10">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332033</v>
       </c>
       <c r="Q10">
-        <v>1484.923203424229</v>
+        <v>1770.07898628208</v>
       </c>
       <c r="R10">
-        <v>1484.923203424229</v>
+        <v>15930.71087653872</v>
       </c>
       <c r="S10">
-        <v>0.366376964871211</v>
+        <v>0.3558752408483434</v>
       </c>
       <c r="T10">
-        <v>0.366376964871211</v>
+        <v>0.3558752408483433</v>
       </c>
     </row>
   </sheetData>
